--- a/Jogos_do_Dia/2023-08-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -631,13 +631,13 @@
         <v>39</v>
       </c>
       <c r="G2">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H2">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J2">
         <v>1.06</v>
@@ -652,10 +652,10 @@
         <v>2.82</v>
       </c>
       <c r="N2">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O2">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="P2">
         <v>1.47</v>
@@ -694,28 +694,28 @@
         <v>2.62</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG2">
         <v>1.95</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -738,10 +738,10 @@
         <v>40</v>
       </c>
       <c r="G3">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H3">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I3">
         <v>1.91</v>
@@ -759,10 +759,10 @@
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O3">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P3">
         <v>1.39</v>
@@ -801,28 +801,28 @@
         <v>2.86</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>League</t>
   </si>
@@ -130,13 +130,7 @@
     <t>Racing Club</t>
   </si>
   <si>
-    <t>Olimpia</t>
-  </si>
-  <si>
     <t>Atlético Nacional</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
   </si>
 </sst>
 </file>
@@ -498,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,16 +622,16 @@
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>3.58</v>
       </c>
       <c r="I2">
-        <v>4.8</v>
+        <v>4.91</v>
       </c>
       <c r="J2">
         <v>1.06</v>
@@ -652,10 +646,10 @@
         <v>2.82</v>
       </c>
       <c r="N2">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O2">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P2">
         <v>1.47</v>
@@ -703,7 +697,7 @@
         <v>5.25</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF2">
         <v>1.38</v>
@@ -716,113 +710,6 @@
       </c>
       <c r="AI2">
         <v>2.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45148</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3">
-        <v>3.6</v>
-      </c>
-      <c r="H3">
-        <v>3.2</v>
-      </c>
-      <c r="I3">
-        <v>1.91</v>
-      </c>
-      <c r="J3">
-        <v>1.05</v>
-      </c>
-      <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="L3">
-        <v>1.3</v>
-      </c>
-      <c r="M3">
-        <v>3.4</v>
-      </c>
-      <c r="N3">
-        <v>1.95</v>
-      </c>
-      <c r="O3">
-        <v>1.75</v>
-      </c>
-      <c r="P3">
-        <v>1.39</v>
-      </c>
-      <c r="Q3">
-        <v>2.75</v>
-      </c>
-      <c r="R3">
-        <v>1.77</v>
-      </c>
-      <c r="S3">
-        <v>1.9</v>
-      </c>
-      <c r="T3">
-        <v>1.83</v>
-      </c>
-      <c r="U3">
-        <v>1.28</v>
-      </c>
-      <c r="V3">
-        <v>1.25</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3">
-        <v>1.6</v>
-      </c>
-      <c r="Z3">
-        <v>1.26</v>
-      </c>
-      <c r="AA3">
-        <v>2.86</v>
-      </c>
-      <c r="AB3">
-        <v>2.3</v>
-      </c>
-      <c r="AC3">
-        <v>7.5</v>
-      </c>
-      <c r="AD3">
-        <v>1.88</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>1.43</v>
-      </c>
-      <c r="AG3">
-        <v>1.73</v>
-      </c>
-      <c r="AH3">
-        <v>2.2</v>
-      </c>
-      <c r="AI3">
-        <v>2.88</v>
       </c>
     </row>
   </sheetData>
